--- a/storage/account.xlsx
+++ b/storage/account.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ERP\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F61BDC-EC71-4D15-97E6-6EC718BDB9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -36,9 +52,6 @@
   </si>
   <si>
     <t>currency</t>
-  </si>
-  <si>
-    <t>type_branch</t>
   </si>
   <si>
     <t>status_account</t>
@@ -290,14 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -324,13 +332,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -620,19 +636,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:K66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,84 +685,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -748,22 +767,22 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -771,22 +790,22 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -794,22 +813,22 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -817,22 +836,22 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -840,22 +859,22 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -863,22 +882,22 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -886,22 +905,22 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -909,22 +928,22 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -932,22 +951,22 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -955,22 +974,22 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -978,22 +997,22 @@
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1001,22 +1020,22 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -1024,22 +1043,22 @@
       <c r="E18">
         <v>2</v>
       </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
       <c r="I18" t="s">
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -1047,22 +1066,22 @@
       <c r="E19">
         <v>2</v>
       </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -1070,22 +1089,22 @@
       <c r="E20">
         <v>2</v>
       </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" t="s">
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -1093,22 +1112,22 @@
       <c r="E21">
         <v>2</v>
       </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
       <c r="I21" t="s">
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -1116,22 +1135,22 @@
       <c r="E22">
         <v>2</v>
       </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" t="s">
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -1139,22 +1158,22 @@
       <c r="E23">
         <v>2</v>
       </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>12</v>
@@ -1162,22 +1181,22 @@
       <c r="E24">
         <v>2</v>
       </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
       <c r="I24" t="s">
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -1185,45 +1204,45 @@
       <c r="E25">
         <v>2</v>
       </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>126</v>
       </c>
       <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
         <v>39</v>
       </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
       <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -1231,22 +1250,22 @@
       <c r="E27">
         <v>2</v>
       </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
       <c r="I27" t="s">
         <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -1254,22 +1273,22 @@
       <c r="E28">
         <v>2</v>
       </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>23</v>
@@ -1277,22 +1296,22 @@
       <c r="E29">
         <v>2</v>
       </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>23</v>
@@ -1300,22 +1319,22 @@
       <c r="E30">
         <v>2</v>
       </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>32</v>
@@ -1323,22 +1342,22 @@
       <c r="E31">
         <v>2</v>
       </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>322</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -1346,22 +1365,22 @@
       <c r="E32">
         <v>2</v>
       </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1369,22 +1388,22 @@
       <c r="E33">
         <v>2</v>
       </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>324</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -1392,22 +1411,22 @@
       <c r="E34">
         <v>2</v>
       </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35">
         <v>41</v>
@@ -1415,22 +1434,22 @@
       <c r="E35">
         <v>2</v>
       </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>412</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>41</v>
@@ -1438,22 +1457,22 @@
       <c r="E36">
         <v>2</v>
       </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>41</v>
@@ -1461,22 +1480,22 @@
       <c r="E37">
         <v>2</v>
       </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>441</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>44</v>
@@ -1484,22 +1503,22 @@
       <c r="E38">
         <v>2</v>
       </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>442</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -1507,22 +1526,22 @@
       <c r="E39">
         <v>2</v>
       </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>443</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>44</v>
@@ -1530,22 +1549,22 @@
       <c r="E40">
         <v>2</v>
       </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>451</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>45</v>
@@ -1553,22 +1572,22 @@
       <c r="E41">
         <v>2</v>
       </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1211</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>121</v>
@@ -1576,22 +1595,22 @@
       <c r="E42">
         <v>3</v>
       </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1212</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>121</v>
@@ -1599,22 +1618,22 @@
       <c r="E43">
         <v>3</v>
       </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1221</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>122</v>
@@ -1622,22 +1641,22 @@
       <c r="E44">
         <v>3</v>
       </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J44" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1222</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>122</v>
@@ -1645,22 +1664,22 @@
       <c r="E45">
         <v>3</v>
       </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1223</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>122</v>
@@ -1668,22 +1687,22 @@
       <c r="E46">
         <v>3</v>
       </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1224</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>122</v>
@@ -1691,22 +1710,22 @@
       <c r="E47">
         <v>3</v>
       </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1231</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48">
         <v>123</v>
@@ -1714,22 +1733,22 @@
       <c r="E48">
         <v>3</v>
       </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1232</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49">
         <v>123</v>
@@ -1737,22 +1756,22 @@
       <c r="E49">
         <v>3</v>
       </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
-      </c>
-      <c r="K49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1233</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50">
         <v>123</v>
@@ -1760,22 +1779,22 @@
       <c r="E50">
         <v>3</v>
       </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1241</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>124</v>
@@ -1783,22 +1802,22 @@
       <c r="E51">
         <v>3</v>
       </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1242</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52">
         <v>124</v>
@@ -1806,22 +1825,22 @@
       <c r="E52">
         <v>3</v>
       </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>60</v>
-      </c>
-      <c r="K52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1243</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>124</v>
@@ -1829,22 +1848,22 @@
       <c r="E53">
         <v>3</v>
       </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1261</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54">
         <v>126</v>
@@ -1852,22 +1871,22 @@
       <c r="E54">
         <v>3</v>
       </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1262</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55">
         <v>126</v>
@@ -1875,22 +1894,22 @@
       <c r="E55">
         <v>3</v>
       </c>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1263</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56">
         <v>126</v>
@@ -1898,22 +1917,22 @@
       <c r="E56">
         <v>3</v>
       </c>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1264</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>126</v>
@@ -1921,22 +1940,22 @@
       <c r="E57">
         <v>3</v>
       </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2211</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58">
         <v>221</v>
@@ -1944,22 +1963,22 @@
       <c r="E58">
         <v>3</v>
       </c>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2212</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59">
         <v>221</v>
@@ -1967,22 +1986,22 @@
       <c r="E59">
         <v>3</v>
       </c>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
-      </c>
-      <c r="K59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2213</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60">
         <v>221</v>
@@ -1990,22 +2009,22 @@
       <c r="E60">
         <v>3</v>
       </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J60" t="s">
-        <v>69</v>
-      </c>
-      <c r="K60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2331</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61">
         <v>233</v>
@@ -2013,22 +2032,22 @@
       <c r="E61">
         <v>3</v>
       </c>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
-      </c>
-      <c r="K61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2332</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>233</v>
@@ -2036,22 +2055,22 @@
       <c r="E62">
         <v>3</v>
       </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2333</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63">
         <v>233</v>
@@ -2059,22 +2078,22 @@
       <c r="E63">
         <v>3</v>
       </c>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s">
-        <v>83</v>
-      </c>
-      <c r="K63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4121</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64">
         <v>412</v>
@@ -2082,22 +2101,22 @@
       <c r="E64">
         <v>3</v>
       </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s">
-        <v>87</v>
-      </c>
-      <c r="K64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4122</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <v>412</v>
@@ -2105,22 +2124,22 @@
       <c r="E65">
         <v>3</v>
       </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4123</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66">
         <v>412</v>
@@ -2128,28 +2147,17 @@
       <c r="E66">
         <v>3</v>
       </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
-      </c>
-      <c r="K66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>